--- a/Magnetometer/NoiseFloor_raw_withGraph.xlsx
+++ b/Magnetometer/NoiseFloor_raw_withGraph.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="NoiseFloor_raw" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -643,28 +643,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3842927729999999</c:v>
+                  <c:v>2.1306801683490648</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2460121919999998</c:v>
+                  <c:v>2.2273184198164762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3622032009999998</c:v>
+                  <c:v>2.3239566712839035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5082949160000001</c:v>
+                  <c:v>2.4205949227514263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4214848889999998</c:v>
+                  <c:v>2.5172331742175023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.689638983</c:v>
+                  <c:v>2.6138714256862681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5455610819999999</c:v>
+                  <c:v>2.7105096771509594</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9653982989999998</c:v>
+                  <c:v>2.8071479286199579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,2638 +1734,2672 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-2.640124615</v>
+        <v>-1.59475592957</v>
       </c>
       <c r="B1">
-        <v>0.82011890499999995</v>
+        <v>-2.4404743389000001</v>
       </c>
       <c r="C1">
-        <v>2.1510009110000001</v>
+        <v>3.0485998537099999</v>
       </c>
       <c r="D1">
-        <v>1.717319569</v>
+        <v>0.65810231395999996</v>
       </c>
       <c r="E1">
-        <v>6.3310914309999999</v>
+        <v>1.9626181845999999</v>
       </c>
       <c r="F1">
-        <v>3.956297196</v>
+        <v>3.0341643431400001</v>
       </c>
       <c r="G1">
-        <v>8.0400469399999999</v>
+        <v>5.2416529628799999</v>
       </c>
       <c r="H1">
-        <v>7.1004064370000002</v>
+        <v>12.5812913807</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.2552841340000001</v>
+        <v>-0.160142949472</v>
       </c>
       <c r="B2">
-        <v>3.6275245749999998</v>
+        <v>1.8426995585899999</v>
       </c>
       <c r="C2">
-        <v>2.810071727</v>
+        <v>-1.5547364068</v>
       </c>
       <c r="D2">
-        <v>-0.54198072399999997</v>
+        <v>6.71937861319</v>
       </c>
       <c r="E2">
-        <v>7.3857482660000002</v>
+        <v>7.8132190926799998</v>
       </c>
       <c r="F2">
-        <v>6.305008752</v>
+        <v>3.2818410225900001</v>
       </c>
       <c r="G2">
-        <v>0.32344942599999998</v>
+        <v>8.43866634838</v>
       </c>
       <c r="H2">
-        <v>6.0285913930000001</v>
+        <v>7.3822404160900001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-1.485517875</v>
+        <v>1.5101831208200001</v>
       </c>
       <c r="B3">
-        <v>1.5197832870000001</v>
+        <v>1.32405145461</v>
       </c>
       <c r="C3">
-        <v>4.5460459120000003</v>
+        <v>6.72182056774</v>
       </c>
       <c r="D3">
-        <v>2.1096937640000002</v>
+        <v>1.8147970396599999</v>
       </c>
       <c r="E3">
-        <v>5.5560799310000002</v>
+        <v>4.0850046175700001</v>
       </c>
       <c r="F3">
-        <v>1.799970106</v>
+        <v>6.4242790463199997</v>
       </c>
       <c r="G3">
-        <v>3.0939380679999999</v>
+        <v>3.3358357090799999</v>
       </c>
       <c r="H3">
-        <v>12.382613660000001</v>
+        <v>8.2734412982100007</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-2.0372995739999999</v>
+        <v>2.13149965158</v>
       </c>
       <c r="B4">
-        <v>0.753878716</v>
+        <v>4.4724863711499996</v>
       </c>
       <c r="C4">
-        <v>1.9802073389999999</v>
+        <v>-1.17334671422</v>
       </c>
       <c r="D4">
-        <v>3.5582635069999999</v>
+        <v>5.7047993638900003</v>
       </c>
       <c r="E4">
-        <v>6.4318262539999997</v>
+        <v>7.1171677211600004</v>
       </c>
       <c r="F4">
-        <v>2.0151806780000001</v>
+        <v>5.9270539659799999</v>
       </c>
       <c r="G4">
-        <v>11.84155058</v>
+        <v>8.5825155085400002</v>
       </c>
       <c r="H4">
-        <v>4.4028068559999998</v>
+        <v>5.0400920224199997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.364170546</v>
+        <v>0.14621208488000001</v>
       </c>
       <c r="B5">
-        <v>0.17035065299999999</v>
+        <v>1.3735826672</v>
       </c>
       <c r="C5">
-        <v>2.3505771919999998</v>
+        <v>4.6059066579500003</v>
       </c>
       <c r="D5">
-        <v>5.5576343809999997</v>
+        <v>2.10887528593</v>
       </c>
       <c r="E5">
-        <v>1.143454271</v>
+        <v>7.2565792241400002</v>
       </c>
       <c r="F5">
-        <v>1.4603527970000001</v>
+        <v>3.6695813850799999</v>
       </c>
       <c r="G5">
-        <v>4.9793116629999998</v>
+        <v>7.5942920707099999</v>
       </c>
       <c r="H5">
-        <v>4.5197131849999996</v>
+        <v>3.90280572109</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.3875228160000002</v>
+        <v>-2.0125003234699999</v>
       </c>
       <c r="B6">
-        <v>0.740610094</v>
+        <v>-4.7528466031200001</v>
       </c>
       <c r="C6">
-        <v>2.971683874</v>
+        <v>-1.32125535624</v>
       </c>
       <c r="D6">
-        <v>8.2308361300000001</v>
+        <v>2.55944295295</v>
       </c>
       <c r="E6">
-        <v>4.0897056679999997</v>
+        <v>8.7047575852300003</v>
       </c>
       <c r="F6">
-        <v>2.159151692</v>
+        <v>2.38016402507</v>
       </c>
       <c r="G6">
-        <v>2.8513059740000002</v>
+        <v>3.55077144912</v>
       </c>
       <c r="H6">
-        <v>9.7841112589999994</v>
+        <v>7.14379536636</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.1879524180000001</v>
+        <v>9.8796806116199995E-2</v>
       </c>
       <c r="B7">
-        <v>3.782697566</v>
+        <v>-2.94852165625E-2</v>
       </c>
       <c r="C7">
-        <v>1.604998073</v>
+        <v>1.59055460643</v>
       </c>
       <c r="D7">
-        <v>7.1095702940000001</v>
+        <v>4.1976447491900002</v>
       </c>
       <c r="E7">
-        <v>5.2275801790000003</v>
+        <v>2.7727467728000001</v>
       </c>
       <c r="F7">
-        <v>7.7776648220000002</v>
+        <v>7.6373482257900003</v>
       </c>
       <c r="G7">
-        <v>6.9216550840000002</v>
+        <v>10.5885925546</v>
       </c>
       <c r="H7">
-        <v>7.3187410079999999</v>
+        <v>3.3062715008899999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-0.88412215699999996</v>
+        <v>3.8118527368600001</v>
       </c>
       <c r="B8">
-        <v>0.60392838199999999</v>
+        <v>2.6832811359400002</v>
       </c>
       <c r="C8">
-        <v>8.0933250129999994</v>
+        <v>4.2071193088800003</v>
       </c>
       <c r="D8">
-        <v>0.31036539600000002</v>
+        <v>2.4537875625100001</v>
       </c>
       <c r="E8">
-        <v>3.7226555970000001</v>
+        <v>1.3457969353999999</v>
       </c>
       <c r="F8">
-        <v>2.4563224350000001</v>
+        <v>3.3368019697800002</v>
       </c>
       <c r="G8">
-        <v>8.0258206320000003</v>
+        <v>6.7664701964100002</v>
       </c>
       <c r="H8">
-        <v>11.162397779999999</v>
+        <v>7.0562972505300001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4.3600750000000001E-2</v>
+        <v>-1.3586393559500001</v>
       </c>
       <c r="B9">
-        <v>-1.8255507289999999</v>
+        <v>1.15480165745</v>
       </c>
       <c r="C9">
-        <v>5.8497556560000001</v>
+        <v>4.0837246236000002</v>
       </c>
       <c r="D9">
-        <v>2.595427962</v>
+        <v>1.9314525301100001</v>
       </c>
       <c r="E9">
-        <v>1.058184985</v>
+        <v>5.5220566485399996</v>
       </c>
       <c r="F9">
-        <v>8.1992533860000005</v>
+        <v>9.3475831933600002</v>
       </c>
       <c r="G9">
-        <v>9.9423603140000001</v>
+        <v>8.0783022622500003</v>
       </c>
       <c r="H9">
-        <v>6.395862631</v>
+        <v>8.0633685098299992</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-2.124993135</v>
+        <v>0.42007274688700003</v>
       </c>
       <c r="B10">
-        <v>1.803774926</v>
+        <v>5.51164242814</v>
       </c>
       <c r="C10">
-        <v>2.8668712909999998</v>
+        <v>-0.94882189628000002</v>
       </c>
       <c r="D10">
-        <v>6.9066816429999998</v>
+        <v>2.9020669236500001</v>
       </c>
       <c r="E10">
-        <v>1.941877868</v>
+        <v>0.95066617387399999</v>
       </c>
       <c r="F10">
-        <v>1.5203913659999999</v>
+        <v>5.1909409962600002</v>
       </c>
       <c r="G10">
-        <v>8.8741029000000005</v>
+        <v>5.7682684240800004</v>
       </c>
       <c r="H10">
-        <v>9.6712129719999993</v>
+        <v>7.5660875248100004</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.087545438</v>
+        <v>0.29083623347499998</v>
       </c>
       <c r="B11">
-        <v>-0.83059250399999995</v>
+        <v>-2.4648334809299999</v>
       </c>
       <c r="C11">
-        <v>-0.99414624799999995</v>
+        <v>-0.93403943362300001</v>
       </c>
       <c r="D11">
-        <v>5.2870756999999999</v>
+        <v>0.75889452131799995</v>
       </c>
       <c r="E11">
-        <v>1.566121586</v>
+        <v>5.7497973076799997</v>
       </c>
       <c r="F11">
-        <v>-0.46378554399999999</v>
+        <v>6.2763274705100001</v>
       </c>
       <c r="G11">
-        <v>8.4822579989999998</v>
+        <v>11.204055608000001</v>
       </c>
       <c r="H11">
-        <v>5.248908804</v>
+        <v>6.7551577418199997</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-3.0191917290000001</v>
+        <v>3.7309599058299998</v>
       </c>
       <c r="B12">
-        <v>-0.32550980499999999</v>
+        <v>1.8480003517900001</v>
       </c>
       <c r="C12">
-        <v>-1.0888909010000001</v>
+        <v>-0.36491128158300001</v>
       </c>
       <c r="D12">
-        <v>2.823145732</v>
+        <v>-0.33231589009500001</v>
       </c>
       <c r="E12">
-        <v>3.3868789339999998</v>
+        <v>6.4707171556700001</v>
       </c>
       <c r="F12">
-        <v>11.956221299999999</v>
+        <v>3.1267996342900002</v>
       </c>
       <c r="G12">
-        <v>5.9611219489999998</v>
+        <v>4.1855011203499997</v>
       </c>
       <c r="H12">
-        <v>5.3052964830000002</v>
+        <v>6.1850648613499999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.80929092899999999</v>
+        <v>-0.60788296697599997</v>
       </c>
       <c r="B13">
-        <v>3.3839116630000001</v>
+        <v>0.15963777393299999</v>
       </c>
       <c r="C13">
-        <v>1.506755989</v>
+        <v>1.5668088383000001</v>
       </c>
       <c r="D13">
-        <v>4.7116727550000004</v>
+        <v>2.4962933590700001</v>
       </c>
       <c r="E13">
-        <v>11.24922314</v>
+        <v>3.5954692536900001</v>
       </c>
       <c r="F13">
-        <v>7.2834326860000003</v>
+        <v>5.5777902504699997</v>
       </c>
       <c r="G13">
-        <v>9.083447649</v>
+        <v>11.2421356959</v>
       </c>
       <c r="H13">
-        <v>8.5666390139999997</v>
+        <v>3.3099359445799998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.87191397599999998</v>
+        <v>0.94059680428900005</v>
       </c>
       <c r="B14">
-        <v>2.3709211610000001</v>
+        <v>2.7295668433100002</v>
       </c>
       <c r="C14">
-        <v>4.772261361</v>
+        <v>4.2861211272300004</v>
       </c>
       <c r="D14">
-        <v>4.3205234560000001</v>
+        <v>6.6733552320599996</v>
       </c>
       <c r="E14">
-        <v>6.944798306</v>
+        <v>6.2652695934200002</v>
       </c>
       <c r="F14">
-        <v>6.9136745990000001</v>
+        <v>5.5625442708800001</v>
       </c>
       <c r="G14">
-        <v>3.986317836</v>
+        <v>10.2455225927</v>
       </c>
       <c r="H14">
-        <v>9.3405913250000001</v>
+        <v>7.0640737840299996</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-2.3994384540000002</v>
+        <v>1.5360487437799999</v>
       </c>
       <c r="B15">
-        <v>-1.82884175</v>
+        <v>-1.2754780074400001</v>
       </c>
       <c r="C15">
-        <v>-0.33998054</v>
+        <v>3.9319412419100002</v>
       </c>
       <c r="D15">
-        <v>-2.7122244599999998</v>
+        <v>3.0881885581100001</v>
       </c>
       <c r="E15">
-        <v>-0.23516003099999999</v>
+        <v>5.7625943047800003</v>
       </c>
       <c r="F15">
-        <v>4.8673555779999997</v>
+        <v>3.5401452037899999</v>
       </c>
       <c r="G15">
-        <v>7.2882869010000002</v>
+        <v>1.2173445411999999</v>
       </c>
       <c r="H15">
-        <v>7.4493297150000002</v>
+        <v>2.6783059821599999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-1.918759809</v>
+        <v>1.60154195897</v>
       </c>
       <c r="B16">
-        <v>0.30551473299999998</v>
+        <v>-0.124630565763</v>
       </c>
       <c r="C16">
-        <v>5.0883415789999997</v>
+        <v>-0.48303612112200001</v>
       </c>
       <c r="D16">
-        <v>4.3986485579999997</v>
+        <v>-0.50679114868499997</v>
       </c>
       <c r="E16">
-        <v>7.9334855099999997</v>
+        <v>5.0010867504299998</v>
       </c>
       <c r="F16">
-        <v>7.5073394130000004</v>
+        <v>6.3642349535399996</v>
       </c>
       <c r="G16">
-        <v>7.697893197</v>
+        <v>7.6840382868699999</v>
       </c>
       <c r="H16">
-        <v>3.26464365</v>
+        <v>5.4746772904699998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.90472815200000001</v>
+        <v>1.4538395532499999</v>
       </c>
       <c r="B17">
-        <v>2.026069771</v>
+        <v>8.44893096859</v>
       </c>
       <c r="C17">
-        <v>1.039860365</v>
+        <v>0.26698716484099999</v>
       </c>
       <c r="D17">
-        <v>1.6254624980000001</v>
+        <v>1.4463069415500001</v>
       </c>
       <c r="E17">
-        <v>5.9568540900000002</v>
+        <v>6.3022270913099998</v>
       </c>
       <c r="F17">
-        <v>6.4694064359999999</v>
+        <v>5.0199355678500002</v>
       </c>
       <c r="G17">
-        <v>6.6478737580000002</v>
+        <v>6.1951434963600001</v>
       </c>
       <c r="H17">
-        <v>7.6239736259999997</v>
+        <v>3.62250551748</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-0.95765265399999999</v>
+        <v>-1.5703258902999999</v>
       </c>
       <c r="B18">
-        <v>-0.57388378100000004</v>
+        <v>0.11098767993899999</v>
       </c>
       <c r="C18">
-        <v>0.29949969799999998</v>
+        <v>-1.1294330398000001</v>
       </c>
       <c r="D18">
-        <v>7.4879091979999997</v>
+        <v>3.35596687433</v>
       </c>
       <c r="E18">
-        <v>2.9442193140000001</v>
+        <v>7.8556804228099999</v>
       </c>
       <c r="F18">
-        <v>3.2188123110000002</v>
+        <v>5.9150228687700004</v>
       </c>
       <c r="G18">
-        <v>7.6126724010000002</v>
+        <v>11.0771642981</v>
       </c>
       <c r="H18">
-        <v>5.9229276530000003</v>
+        <v>5.0895839584899996</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-1.265249158</v>
+        <v>-3.61155842381</v>
       </c>
       <c r="B19">
-        <v>2.860576682</v>
+        <v>2.61381302789</v>
       </c>
       <c r="C19">
-        <v>3.2078285630000001</v>
+        <v>3.7575171896800001</v>
       </c>
       <c r="D19">
-        <v>3.722109348</v>
+        <v>0.78180154761999998</v>
       </c>
       <c r="E19">
-        <v>6.2333043090000002</v>
+        <v>3.9577125996300002</v>
       </c>
       <c r="F19">
-        <v>5.901327148</v>
+        <v>5.2650780729899997</v>
       </c>
       <c r="G19">
-        <v>4.1176182069999996</v>
+        <v>6.26353099566</v>
       </c>
       <c r="H19">
-        <v>4.8890183470000004</v>
+        <v>5.2087308197800004</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.209514319</v>
+        <v>1.0532599759100001</v>
       </c>
       <c r="B20">
-        <v>1.960209155</v>
+        <v>1.96721648238</v>
       </c>
       <c r="C20">
-        <v>0.70468189999999997</v>
+        <v>4.7709509078199996</v>
       </c>
       <c r="D20">
-        <v>9.2818051999999998E-2</v>
+        <v>3.5159067048599999</v>
       </c>
       <c r="E20">
-        <v>2.7348417409999999</v>
+        <v>1.9974802274800001</v>
       </c>
       <c r="F20">
-        <v>8.2677807100000003</v>
+        <v>-0.291476356243</v>
       </c>
       <c r="G20">
-        <v>6.2110788330000002</v>
+        <v>8.9272549664300005</v>
       </c>
       <c r="H20">
-        <v>9.2266596760000006</v>
+        <v>6.3874439550900002</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2.4968495050000001</v>
+        <v>1.9523912258</v>
       </c>
       <c r="B21">
-        <v>2.4356187070000002</v>
+        <v>-1.25627875995</v>
       </c>
       <c r="C21">
-        <v>0.79106202800000003</v>
+        <v>1.0623200216199999</v>
       </c>
       <c r="D21">
-        <v>3.5266673819999999</v>
+        <v>7.2478671762299998</v>
       </c>
       <c r="E21">
-        <v>0.50183219899999998</v>
+        <v>8.9615164497199995</v>
       </c>
       <c r="F21">
-        <v>9.5337822140000004</v>
+        <v>2.5961863493399999</v>
       </c>
       <c r="G21">
-        <v>6.3414361599999998</v>
+        <v>13.6755064459</v>
       </c>
       <c r="H21">
-        <v>9.0306841440000003</v>
+        <v>7.5926114619799998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-0.47656264700000001</v>
+        <v>-0.85614569178400002</v>
       </c>
       <c r="B22">
-        <v>1.6426522589999999</v>
+        <v>-1.77458986227</v>
       </c>
       <c r="C22">
-        <v>-0.91401933000000002</v>
+        <v>1.47718390554</v>
       </c>
       <c r="D22">
-        <v>2.3847296529999999</v>
+        <v>4.6179334013500002</v>
       </c>
       <c r="E22">
-        <v>4.529622829</v>
+        <v>11.070873064800001</v>
       </c>
       <c r="F22">
-        <v>6.6129257069999996</v>
+        <v>10.0098566785</v>
       </c>
       <c r="G22">
-        <v>5.8142908000000002</v>
+        <v>8.1328835911400006</v>
       </c>
       <c r="H22">
-        <v>13.06124003</v>
+        <v>6.5036488123999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-0.33394414900000002</v>
+        <v>-2.0408008876400001</v>
       </c>
       <c r="B23">
-        <v>2.4059837919999998</v>
+        <v>-0.58027708662800004</v>
       </c>
       <c r="C23">
-        <v>3.9352705029999999</v>
+        <v>1.7165359140100001</v>
       </c>
       <c r="D23">
-        <v>-1.647727693</v>
+        <v>3.0571655466599998</v>
       </c>
       <c r="E23">
-        <v>3.488044055</v>
+        <v>4.1271008952799999</v>
       </c>
       <c r="F23">
-        <v>5.5123182899999996</v>
+        <v>6.9008802944200003</v>
       </c>
       <c r="G23">
-        <v>7.8062562299999998</v>
+        <v>6.9902064522099998</v>
       </c>
       <c r="H23">
-        <v>8.1475007589999997</v>
+        <v>1.04490914413</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-3.7758092080000001</v>
+        <v>-1.19947883978</v>
       </c>
       <c r="B24">
-        <v>4.6641841130000001</v>
+        <v>-1.9586869766499999</v>
       </c>
       <c r="C24">
-        <v>1.0067793570000001</v>
+        <v>1.9467002420799999</v>
       </c>
       <c r="D24">
-        <v>3.863449396</v>
+        <v>1.7418589208399999</v>
       </c>
       <c r="E24">
-        <v>6.6976654150000003</v>
+        <v>7.4898909419199997</v>
       </c>
       <c r="F24">
-        <v>7.0974622180000004</v>
+        <v>1.8076926795299999</v>
       </c>
       <c r="G24">
-        <v>1.1336454659999999</v>
+        <v>6.2751461466</v>
       </c>
       <c r="H24">
-        <v>7.158778474</v>
+        <v>8.2388381474199992</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-1.7671788390000001</v>
+        <v>-4.9717274893500001</v>
       </c>
       <c r="B25">
-        <v>0.57859690399999997</v>
+        <v>1.3920141427099999</v>
       </c>
       <c r="C25">
-        <v>3.6238244060000002</v>
+        <v>0.26287989823699998</v>
       </c>
       <c r="D25">
-        <v>2.2590873469999999</v>
+        <v>2.3126053566999998</v>
       </c>
       <c r="E25">
-        <v>1.8826598590000001</v>
+        <v>4.6204951966800003</v>
       </c>
       <c r="F25">
-        <v>2.2314014900000001</v>
+        <v>7.95129624503</v>
       </c>
       <c r="G25">
-        <v>2.2650108539999998</v>
+        <v>6.4274889927099998</v>
       </c>
       <c r="H25">
-        <v>5.1005527390000003</v>
+        <v>9.9337736071399991</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4.2897387839999999</v>
+        <v>2.4985093889800001</v>
       </c>
       <c r="B26">
-        <v>3.2393350390000002</v>
+        <v>1.1962199814500001</v>
       </c>
       <c r="C26">
-        <v>-2.5673825730000002</v>
+        <v>1.1442622168300001</v>
       </c>
       <c r="D26">
-        <v>3.9287096859999999</v>
+        <v>2.8201391176300001</v>
       </c>
       <c r="E26">
-        <v>5.3929589509999998</v>
+        <v>3.06696385507</v>
       </c>
       <c r="F26">
-        <v>6.9175779720000001</v>
+        <v>5.6949749654200001</v>
       </c>
       <c r="G26">
-        <v>8.1698411069999999</v>
+        <v>9.2103152824399999</v>
       </c>
       <c r="H26">
-        <v>7.3716639410000004</v>
+        <v>7.7682975593499997</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-0.78660176999999998</v>
+        <v>0.45559738990900001</v>
       </c>
       <c r="B27">
-        <v>-1.8863983740000001</v>
+        <v>1.77457031208</v>
       </c>
       <c r="C27">
-        <v>2.0177085469999998</v>
+        <v>6.1297589489E-2</v>
       </c>
       <c r="D27">
-        <v>3.9158856179999999</v>
+        <v>1.15217658177</v>
       </c>
       <c r="E27">
-        <v>3.2583958229999999</v>
+        <v>4.5931734640200004</v>
       </c>
       <c r="F27">
-        <v>5.9345590279999998</v>
+        <v>9.4760620448099999</v>
       </c>
       <c r="G27">
-        <v>2.5162129090000001</v>
+        <v>5.0596373750100003</v>
       </c>
       <c r="H27">
-        <v>5.2947857239999996</v>
+        <v>6.0069123587300002</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-0.48583294100000002</v>
+        <v>0.55159145273599997</v>
       </c>
       <c r="B28">
-        <v>2.8905097</v>
+        <v>-0.52181102507999999</v>
       </c>
       <c r="C28">
-        <v>6.3510666889999996</v>
+        <v>3.2643826836500001</v>
       </c>
       <c r="D28">
-        <v>-2.6777823669999998</v>
+        <v>5.60514678975</v>
       </c>
       <c r="E28">
-        <v>7.2113570319999996</v>
+        <v>3.78563979201</v>
       </c>
       <c r="F28">
-        <v>8.1560683659999995</v>
+        <v>4.7902695609899997</v>
       </c>
       <c r="G28">
-        <v>9.3847373009999995</v>
+        <v>7.7430482274900001</v>
       </c>
       <c r="H28">
-        <v>3.3853965100000001</v>
+        <v>8.4049699164099998</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-4.6651377900000002</v>
+        <v>-2.33698392796</v>
       </c>
       <c r="B29">
-        <v>-0.75206322199999998</v>
+        <v>0.82480872528000004</v>
       </c>
       <c r="C29">
-        <v>1.1276781339999999</v>
+        <v>-1.9278592510499999</v>
       </c>
       <c r="D29">
-        <v>9.7786892610000002</v>
+        <v>6.8287657964399999</v>
       </c>
       <c r="E29">
-        <v>5.2860572540000001</v>
+        <v>2.3720181565499998</v>
       </c>
       <c r="F29">
-        <v>10.998565960000001</v>
+        <v>7.9171476067600004</v>
       </c>
       <c r="G29">
-        <v>5.3112516630000002</v>
+        <v>4.10467829151</v>
       </c>
       <c r="H29">
-        <v>9.6066164539999992</v>
+        <v>8.9854108191299993</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-0.34660458900000002</v>
+        <v>-2.5871011050699999</v>
       </c>
       <c r="B30">
-        <v>2.6828449050000001</v>
+        <v>6.7644875133599998</v>
       </c>
       <c r="C30">
-        <v>5.7897443470000001</v>
+        <v>2.0552313142099998</v>
       </c>
       <c r="D30">
-        <v>3.40164841</v>
+        <v>4.3310306215900001</v>
       </c>
       <c r="E30">
-        <v>1.5913067409999999</v>
+        <v>1.76796313748</v>
       </c>
       <c r="F30">
-        <v>0.76712154700000001</v>
+        <v>6.6988676618699996</v>
       </c>
       <c r="G30">
-        <v>9.172023673</v>
+        <v>7.3256416503499997</v>
       </c>
       <c r="H30">
-        <v>2.1515795610000001</v>
+        <v>3.9013323498300001</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.47251965499999998</v>
+        <v>0.87945531805400001</v>
       </c>
       <c r="B31">
-        <v>-1.2901044530000001</v>
+        <v>1.9662731497899999</v>
       </c>
       <c r="C31">
-        <v>3.971942377</v>
+        <v>2.9028552351000001</v>
       </c>
       <c r="D31">
-        <v>3.4298461759999999</v>
+        <v>8.3698597102800001</v>
       </c>
       <c r="E31">
-        <v>5.1338039289999999</v>
+        <v>2.8115267967599999</v>
       </c>
       <c r="F31">
-        <v>7.1065491139999999</v>
+        <v>0.87109205913999999</v>
       </c>
       <c r="G31">
-        <v>3.029800582</v>
+        <v>9.3476868948000007</v>
       </c>
       <c r="H31">
-        <v>7.5143540059999996</v>
+        <v>4.3766835260799999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1.786313007</v>
+        <v>-2.5022553948400001</v>
       </c>
       <c r="B32">
-        <v>0.26751149499999999</v>
+        <v>-1.0423549917399999</v>
       </c>
       <c r="C32">
-        <v>3.833725652</v>
+        <v>5.0726756476299997</v>
       </c>
       <c r="D32">
-        <v>3.6817968460000001</v>
+        <v>3.9746333269199998</v>
       </c>
       <c r="E32">
-        <v>3.9932144649999999</v>
+        <v>5.2144327940600004</v>
       </c>
       <c r="F32">
-        <v>3.7295304850000002</v>
+        <v>8.9102901492500006</v>
       </c>
       <c r="G32">
-        <v>2.8654870680000002</v>
+        <v>7.0558851014300004</v>
       </c>
       <c r="H32">
-        <v>7.0411192490000003</v>
+        <v>5.3388239217900004</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2.119751704</v>
+        <v>1.44121773318</v>
       </c>
       <c r="B33">
-        <v>-0.21417098400000001</v>
+        <v>-3.28532648314</v>
       </c>
       <c r="C33">
-        <v>7.1489975350000003</v>
+        <v>5.5286905093099996</v>
       </c>
       <c r="D33">
-        <v>1.9878063530000001</v>
+        <v>4.1206880401700001</v>
       </c>
       <c r="E33">
-        <v>1.8538758239999999</v>
+        <v>5.6433921279200003</v>
       </c>
       <c r="F33">
-        <v>2.7072828520000001</v>
+        <v>5.7229628611400001</v>
       </c>
       <c r="G33">
-        <v>5.906080502</v>
+        <v>9.8193900778799996</v>
       </c>
       <c r="H33">
-        <v>10.719641230000001</v>
+        <v>12.8536224382</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-2.1857315879999999</v>
+        <v>-3.4383940737800001</v>
       </c>
       <c r="B34">
-        <v>0.39736522800000001</v>
+        <v>2.1616337979</v>
       </c>
       <c r="C34">
-        <v>-0.25089059800000002</v>
+        <v>3.10921548985</v>
       </c>
       <c r="D34">
-        <v>3.3306265599999998</v>
+        <v>2.5933709784199999</v>
       </c>
       <c r="E34">
-        <v>2.030765964</v>
+        <v>1.9384385254300001</v>
       </c>
       <c r="F34">
-        <v>2.34295045</v>
+        <v>1.1306128877599999</v>
       </c>
       <c r="G34">
-        <v>3.1936846700000001</v>
+        <v>7.5706763773899999</v>
       </c>
       <c r="H34">
-        <v>8.1782211109999992</v>
+        <v>12.691736220099999</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-1.905116711</v>
+        <v>-0.65394310953400003</v>
       </c>
       <c r="B35">
-        <v>1.548904426</v>
+        <v>-0.20305641018699999</v>
       </c>
       <c r="C35">
-        <v>0.88739133299999995</v>
+        <v>2.8354469743399999</v>
       </c>
       <c r="D35">
-        <v>3.194775634</v>
+        <v>1.9003978102800001</v>
       </c>
       <c r="E35">
-        <v>4.4529965430000003</v>
+        <v>4.1478879929900003</v>
       </c>
       <c r="F35">
-        <v>3.201948813</v>
+        <v>4.2147516205100004</v>
       </c>
       <c r="G35">
-        <v>5.0536205719999998</v>
+        <v>5.7128956646800004</v>
       </c>
       <c r="H35">
-        <v>0.44780884300000001</v>
+        <v>7.4553648920500004</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.523461603</v>
+        <v>-1.37232409312</v>
       </c>
       <c r="B36">
-        <v>-2.6251213349999998</v>
+        <v>3.8067363727100001</v>
       </c>
       <c r="C36">
-        <v>-0.15446196500000001</v>
+        <v>1.1055853815200001</v>
       </c>
       <c r="D36">
-        <v>0.191518417</v>
+        <v>1.6466345531</v>
       </c>
       <c r="E36">
-        <v>3.3693862189999999</v>
+        <v>-1.1914433630800001</v>
       </c>
       <c r="F36">
-        <v>7.0078241610000003</v>
+        <v>3.7849285139300002</v>
       </c>
       <c r="G36">
-        <v>5.8463094880000002</v>
+        <v>3.5757406002000001</v>
       </c>
       <c r="H36">
-        <v>7.3495681040000003</v>
+        <v>3.48641797831</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.418064192</v>
+        <v>-0.36828093444999999</v>
       </c>
       <c r="B37">
-        <v>4.0264233520000001</v>
+        <v>1.18604581057</v>
       </c>
       <c r="C37">
-        <v>5.6216290300000002</v>
+        <v>-2.3854936682800001</v>
       </c>
       <c r="D37">
-        <v>3.7480858549999998</v>
+        <v>-2.8353366625500001</v>
       </c>
       <c r="E37">
-        <v>2.687635089</v>
+        <v>5.0336043901499998</v>
       </c>
       <c r="F37">
-        <v>3.7882509440000001</v>
+        <v>5.2995571374799999</v>
       </c>
       <c r="G37">
-        <v>6.3795877299999999</v>
+        <v>6.8413998328799996</v>
       </c>
       <c r="H37">
-        <v>5.7375285370000002</v>
+        <v>11.963195427800001</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6.1653855829999999</v>
+        <v>1.6701432680799999</v>
       </c>
       <c r="B38">
-        <v>-0.45804282200000002</v>
+        <v>-3.5408917906399999</v>
       </c>
       <c r="C38">
-        <v>2.0479808839999998</v>
+        <v>-0.52278241278199999</v>
       </c>
       <c r="D38">
-        <v>3.8404660540000002</v>
+        <v>5.5800000664500002</v>
       </c>
       <c r="E38">
-        <v>3.7082100950000001</v>
+        <v>5.7419392168299996</v>
       </c>
       <c r="F38">
-        <v>5.7228857800000004</v>
+        <v>6.4668932307600002</v>
       </c>
       <c r="G38">
-        <v>5.621822968</v>
+        <v>4.2058816290600003</v>
       </c>
       <c r="H38">
-        <v>3.104067551</v>
+        <v>4.3050410466400004</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-0.64611981399999996</v>
+        <v>3.4449600293599998</v>
       </c>
       <c r="B39">
-        <v>0.27466499900000002</v>
+        <v>1.2512439986399999</v>
       </c>
       <c r="C39">
-        <v>3.295372655</v>
+        <v>3.5325889375899999</v>
       </c>
       <c r="D39">
-        <v>5.5068523469999997</v>
+        <v>5.8880268304100003</v>
       </c>
       <c r="E39">
-        <v>3.5611536269999999</v>
+        <v>2.5493313881200002</v>
       </c>
       <c r="F39">
-        <v>2.919568425</v>
+        <v>5.2572818810899999</v>
       </c>
       <c r="G39">
-        <v>9.0335059490000003</v>
+        <v>3.2307010095400002</v>
       </c>
       <c r="H39">
-        <v>9.5459749299999999</v>
+        <v>4.6996985637200002</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-2.085244973</v>
+        <v>5.0781388595900001</v>
       </c>
       <c r="B40">
-        <v>3.0162857980000002</v>
+        <v>2.5095978879500001</v>
       </c>
       <c r="C40">
-        <v>-8.2738529999999994E-3</v>
+        <v>0.21650790232200001</v>
       </c>
       <c r="D40">
-        <v>3.7998912520000001</v>
+        <v>1.22355688992</v>
       </c>
       <c r="E40">
-        <v>5.6208505359999998</v>
+        <v>2.9402497305700002</v>
       </c>
       <c r="F40">
-        <v>2.0359780459999999</v>
+        <v>5.0431292517799999</v>
       </c>
       <c r="G40">
-        <v>4.4971108480000002</v>
+        <v>7.73770146725</v>
       </c>
       <c r="H40">
-        <v>6.7040849849999997</v>
+        <v>6.6763062713599997</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5.1934178580000001</v>
+        <v>-0.67845641109300003</v>
       </c>
       <c r="B41">
-        <v>3.2358054269999998</v>
+        <v>1.01495410794</v>
       </c>
       <c r="C41">
-        <v>0.74647969300000006</v>
+        <v>0.75161850487799997</v>
       </c>
       <c r="D41">
-        <v>5.2991466259999997</v>
+        <v>5.1553921811099999</v>
       </c>
       <c r="E41">
-        <v>7.5770968070000002</v>
+        <v>5.0356261380599996</v>
       </c>
       <c r="F41">
-        <v>8.2083431880000006</v>
+        <v>2.70929693265</v>
       </c>
       <c r="G41">
-        <v>3.0603281390000001</v>
+        <v>1.9109379681800001</v>
       </c>
       <c r="H41">
-        <v>11.80051301</v>
+        <v>5.6056272382400003</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1.903607861</v>
+        <v>-2.0816127282900001</v>
       </c>
       <c r="B42">
-        <v>-2.8344809230000001</v>
+        <v>1.3517280088500001</v>
       </c>
       <c r="C42">
-        <v>4.2574967109999999</v>
+        <v>-0.48259725620100002</v>
       </c>
       <c r="D42">
-        <v>2.4259360550000002</v>
+        <v>0.44541046131599998</v>
       </c>
       <c r="E42">
-        <v>1.246519978</v>
+        <v>6.1650269808599996</v>
       </c>
       <c r="F42">
-        <v>7.0261215440000004</v>
+        <v>6.2558452815800001</v>
       </c>
       <c r="G42">
-        <v>6.4378919379999999</v>
+        <v>6.9752639971399999</v>
       </c>
       <c r="H42">
-        <v>3.0768311119999998</v>
+        <v>5.7915362617300001</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-2.2914510479999999</v>
+        <v>4.3197632240299999</v>
       </c>
       <c r="B43">
-        <v>1.69784121</v>
+        <v>0.420499629293</v>
       </c>
       <c r="C43">
-        <v>5.274144197</v>
+        <v>4.5061734512399996</v>
       </c>
       <c r="D43">
-        <v>3.526651556</v>
+        <v>3.2444184266199998</v>
       </c>
       <c r="E43">
-        <v>-0.34913232599999999</v>
+        <v>1.5291851163600001</v>
       </c>
       <c r="F43">
-        <v>2.2310382579999999</v>
+        <v>7.0521911470100003</v>
       </c>
       <c r="G43">
-        <v>8.2862771570000007</v>
+        <v>7.0866170085600002</v>
       </c>
       <c r="H43">
-        <v>11.59780963</v>
+        <v>6.4910505025900003</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5.2098366E-2</v>
+        <v>-0.116366544216</v>
       </c>
       <c r="B44">
-        <v>1.624157947</v>
+        <v>0.43745091827799998</v>
       </c>
       <c r="C44">
-        <v>1.7034558150000001</v>
+        <v>0.66211503877800004</v>
       </c>
       <c r="D44">
-        <v>3.586024729</v>
+        <v>-1.1980632390899999</v>
       </c>
       <c r="E44">
-        <v>5.6214384759999998</v>
+        <v>6.1241082686999997</v>
       </c>
       <c r="F44">
-        <v>6.1594154220000004</v>
+        <v>8.5454762133600006</v>
       </c>
       <c r="G44">
-        <v>7.309868603</v>
+        <v>7.9475520633399999</v>
       </c>
       <c r="H44">
-        <v>5.4252201720000004</v>
+        <v>8.6734549761499995</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2.0640734300000001</v>
+        <v>-1.19005361104</v>
       </c>
       <c r="B45">
-        <v>5.8418686319999997</v>
+        <v>2.0855846472700001</v>
       </c>
       <c r="C45">
-        <v>5.1001368899999999</v>
+        <v>0.36679537745200003</v>
       </c>
       <c r="D45">
-        <v>2.05951094</v>
+        <v>2.9711975176599998</v>
       </c>
       <c r="E45">
-        <v>7.150509607</v>
+        <v>0.88723752855899995</v>
       </c>
       <c r="F45">
-        <v>5.6735416550000002</v>
+        <v>7.4648581274300003</v>
       </c>
       <c r="G45">
-        <v>8.0057972839999998</v>
+        <v>8.7991588492999995</v>
       </c>
       <c r="H45">
-        <v>7.5416004350000003</v>
+        <v>8.0921300358200003</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1.6544831250000001</v>
+        <v>0.70461128199500001</v>
       </c>
       <c r="B46">
-        <v>-3.2072922579999998</v>
+        <v>-2.4602685828599999</v>
       </c>
       <c r="C46">
-        <v>2.7157289229999999</v>
+        <v>1.46052481915</v>
       </c>
       <c r="D46">
-        <v>2.0391333070000002</v>
+        <v>2.7510670038399998</v>
       </c>
       <c r="E46">
-        <v>5.2649901039999998</v>
+        <v>3.0966154426100001</v>
       </c>
       <c r="F46">
-        <v>6.8942355830000004</v>
+        <v>1.6727634687899999</v>
       </c>
       <c r="G46">
-        <v>9.4846292460000008</v>
+        <v>11.3591530144</v>
       </c>
       <c r="H46">
-        <v>9.0666758620000003</v>
+        <v>4.6861759424500002</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-2.1542842210000002</v>
+        <v>-1.8649590651400001</v>
       </c>
       <c r="B47">
-        <v>4.522129938</v>
+        <v>-1.83771813252</v>
       </c>
       <c r="C47">
-        <v>6.7605621549999997</v>
+        <v>0.88785486510199996</v>
       </c>
       <c r="D47">
-        <v>3.4678317249999999</v>
+        <v>2.8411891382999999</v>
       </c>
       <c r="E47">
-        <v>1.207175324</v>
+        <v>2.6537290795800001</v>
       </c>
       <c r="F47">
-        <v>6.9029656089999998</v>
+        <v>1.93473451313</v>
       </c>
       <c r="G47">
-        <v>7.1589538839999998</v>
+        <v>10.185740231500001</v>
       </c>
       <c r="H47">
-        <v>11.33022577</v>
+        <v>7.2364572067099999</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-1.4527914500000001</v>
+        <v>-1.74498728899</v>
       </c>
       <c r="B48">
-        <v>-0.47524248099999999</v>
+        <v>2.7166888414099999</v>
       </c>
       <c r="C48">
-        <v>4.5280173020000003</v>
+        <v>-2.88030062109</v>
       </c>
       <c r="D48">
-        <v>4.444450711</v>
+        <v>4.9279333881899996</v>
       </c>
       <c r="E48">
-        <v>4.4923082470000004</v>
+        <v>1.79878355848</v>
       </c>
       <c r="F48">
-        <v>6.4394817199999999</v>
+        <v>1.5380782157399999</v>
       </c>
       <c r="G48">
-        <v>3.2039859590000002</v>
+        <v>8.5557510907199994</v>
       </c>
       <c r="H48">
-        <v>9.1572479070000004</v>
+        <v>15.078156337699999</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-0.829749615</v>
+        <v>1.2818167623200001</v>
       </c>
       <c r="B49">
-        <v>1.0988775559999999</v>
+        <v>4.1312091341899997</v>
       </c>
       <c r="C49">
-        <v>-1.329408114</v>
+        <v>-0.23211516801900001</v>
       </c>
       <c r="D49">
-        <v>-4.9849242000000002E-2</v>
+        <v>-4.5712583041999997</v>
       </c>
       <c r="E49">
-        <v>6.8617227180000002</v>
+        <v>7.3798370808999998</v>
       </c>
       <c r="F49">
-        <v>6.1143175510000001</v>
+        <v>2.350739387</v>
       </c>
       <c r="G49">
-        <v>8.2976768459999999</v>
+        <v>10.5282758701</v>
       </c>
       <c r="H49">
-        <v>3.7705511490000001</v>
+        <v>7.3926858530999997</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-1.803177314</v>
+        <v>-1.7042440785599999</v>
       </c>
       <c r="B50">
-        <v>1.8060015030000001</v>
+        <v>2.4187682029399999</v>
       </c>
       <c r="C50">
-        <v>5.4135237759999999</v>
+        <v>-0.14359906004799999</v>
       </c>
       <c r="D50">
-        <v>3.1568151439999999</v>
+        <v>0.213745507606</v>
       </c>
       <c r="E50">
-        <v>4.9542089130000004</v>
+        <v>4.8883842685100003</v>
       </c>
       <c r="F50">
-        <v>8.4580485470000006</v>
+        <v>3.0252101251800001</v>
       </c>
       <c r="G50">
-        <v>7.1274180620000003</v>
+        <v>5.6627224997400001</v>
       </c>
       <c r="H50">
-        <v>5.5868525939999998</v>
+        <v>7.5693344582300002</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>3.2018933070000002</v>
+        <v>-1.5667238003199999</v>
       </c>
       <c r="B51">
-        <v>1.6419108979999999</v>
+        <v>0.338394239905</v>
       </c>
       <c r="C51">
-        <v>-1.5496022819999999</v>
+        <v>1.6281864654</v>
       </c>
       <c r="D51">
-        <v>2.288393997</v>
+        <v>6.3953917500299999</v>
       </c>
       <c r="E51">
-        <v>4.5911042210000002</v>
+        <v>5.0172433589800001</v>
       </c>
       <c r="F51">
-        <v>4.7076540280000003</v>
+        <v>3.2390510805899999</v>
       </c>
       <c r="G51">
-        <v>2.3011074599999999</v>
+        <v>0.35936523567500001</v>
       </c>
       <c r="H51">
-        <v>2.6167470000000002</v>
+        <v>9.4625535521799993</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-3.0614436889999999</v>
+        <v>1.33201274062</v>
       </c>
       <c r="B52">
-        <v>-1.3371466270000001</v>
+        <v>2.09083623106E-2</v>
       </c>
       <c r="C52">
-        <v>1.0387525710000001</v>
+        <v>3.85184132933</v>
       </c>
       <c r="D52">
-        <v>5.0662255189999996</v>
+        <v>3.6540636692300001</v>
       </c>
       <c r="E52">
-        <v>5.1544996569999997</v>
+        <v>6.0064323865700002</v>
       </c>
       <c r="F52">
-        <v>3.5590657239999999</v>
+        <v>0.91045502325600003</v>
       </c>
       <c r="G52">
-        <v>6.2920326099999997</v>
+        <v>8.6742549206100001</v>
       </c>
       <c r="H52">
-        <v>8.247946207</v>
+        <v>2.6202907649</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.94657231100000006</v>
+        <v>1.2699311102899999</v>
       </c>
       <c r="B53">
-        <v>2.3126038219999998</v>
+        <v>0.107501716512</v>
       </c>
       <c r="C53">
-        <v>2.7139377969999998</v>
+        <v>5.52318353153</v>
       </c>
       <c r="D53">
-        <v>-0.82318743599999999</v>
+        <v>3.0512707143600002</v>
       </c>
       <c r="E53">
-        <v>7.6404189799999997</v>
+        <v>4.9622204990299998</v>
       </c>
       <c r="F53">
-        <v>7.2755746710000002</v>
+        <v>6.2661913286099997</v>
       </c>
       <c r="G53">
-        <v>4.9682156239999999</v>
+        <v>6.4486042628</v>
       </c>
       <c r="H53">
-        <v>11.39275245</v>
+        <v>9.7657273766799992</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1.140237556</v>
+        <v>2.0764491084299999</v>
       </c>
       <c r="B54">
-        <v>0.62036380599999996</v>
+        <v>3.9104851971499999</v>
       </c>
       <c r="C54">
-        <v>2.4371142400000001</v>
+        <v>2.7017250666099999</v>
       </c>
       <c r="D54">
-        <v>6.1570362919999999</v>
+        <v>3.89076760269</v>
       </c>
       <c r="E54">
-        <v>0.83343999999999996</v>
+        <v>-6.5167909081499997E-2</v>
       </c>
       <c r="F54">
-        <v>4.7038440189999999</v>
+        <v>1.95656064076</v>
       </c>
       <c r="G54">
-        <v>6.1587312860000001</v>
+        <v>3.13295744849</v>
       </c>
       <c r="H54">
-        <v>1.8665381130000001</v>
+        <v>4.06978104477</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1.4647164269999999</v>
+        <v>-2.1361312824800001</v>
       </c>
       <c r="B55">
-        <v>2.5927671000000001</v>
+        <v>-2.7216012278799999</v>
       </c>
       <c r="C55">
-        <v>0.17322547499999999</v>
+        <v>3.6881224380700002</v>
       </c>
       <c r="D55">
-        <v>4.9641704649999996</v>
+        <v>-1.5616364410900001</v>
       </c>
       <c r="E55">
-        <v>-0.57451576100000001</v>
+        <v>-4.2071613144600004</v>
       </c>
       <c r="F55">
-        <v>2.0782355039999998</v>
+        <v>5.2738331388199997</v>
       </c>
       <c r="G55">
-        <v>8.2838437230000004</v>
+        <v>7.8261019100300002</v>
       </c>
       <c r="H55">
-        <v>3.1319075270000001</v>
+        <v>4.0541441697499998</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.93330529900000003</v>
+        <v>-0.53201461268700001</v>
       </c>
       <c r="B56">
-        <v>0.28900054600000002</v>
+        <v>1.4988470433700001</v>
       </c>
       <c r="C56">
-        <v>1.952356459</v>
+        <v>1.5099749389199999</v>
       </c>
       <c r="D56">
-        <v>-2.8473296299999999</v>
+        <v>2.8580065646100001</v>
       </c>
       <c r="E56">
-        <v>1.5700762070000001</v>
+        <v>-1.4134679750700001</v>
       </c>
       <c r="F56">
-        <v>3.794250297</v>
+        <v>4.05980776025</v>
       </c>
       <c r="G56">
-        <v>5.8309565189999999</v>
+        <v>5.0017423261599996</v>
       </c>
       <c r="H56">
-        <v>9.0487649749999992</v>
+        <v>7.6653336655400004</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2.0019937699999999</v>
+        <v>2.12248134254</v>
       </c>
       <c r="B57">
-        <v>0.60461824500000005</v>
+        <v>0.35757697184300002</v>
       </c>
       <c r="C57">
-        <v>0.87429246599999999</v>
+        <v>5.8005292152699998E-2</v>
       </c>
       <c r="D57">
-        <v>3.4418593249999998</v>
+        <v>4.8100571097299998</v>
       </c>
       <c r="E57">
-        <v>3.7520099309999999</v>
+        <v>1.24333729862</v>
       </c>
       <c r="F57">
-        <v>7.2935489670000004</v>
+        <v>1.5702646318</v>
       </c>
       <c r="G57">
-        <v>12.1135897</v>
+        <v>9.6696935921799998</v>
       </c>
       <c r="H57">
-        <v>8.9311117820000003</v>
+        <v>8.5537365874399995</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-0.838415456</v>
+        <v>-3.60103004045</v>
       </c>
       <c r="B58">
-        <v>0.84973988300000003</v>
+        <v>-2.3830384115199998</v>
       </c>
       <c r="C58">
-        <v>-1.818322685</v>
+        <v>0.15074801412200001</v>
       </c>
       <c r="D58">
-        <v>6.7305562569999999</v>
+        <v>-0.674393669802</v>
       </c>
       <c r="E58">
-        <v>5.4433133820000004</v>
+        <v>4.8728014638300001</v>
       </c>
       <c r="F58">
-        <v>7.0487331260000001</v>
+        <v>6.3836588884400003</v>
       </c>
       <c r="G58">
-        <v>7.1959592020000001</v>
+        <v>8.3680426997299993</v>
       </c>
       <c r="H58">
-        <v>4.0098632680000001</v>
+        <v>9.57219062235</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>4.0804039E-2</v>
+        <v>0.75150240378900002</v>
       </c>
       <c r="B59">
-        <v>2.9704660010000001</v>
+        <v>1.4666925508499999</v>
       </c>
       <c r="C59">
-        <v>4.5691993809999998</v>
+        <v>5.7161425651300002</v>
       </c>
       <c r="D59">
-        <v>-1.193879804</v>
+        <v>5.88554495088</v>
       </c>
       <c r="E59">
-        <v>1.401429526</v>
+        <v>0.75435164252599995</v>
       </c>
       <c r="F59">
-        <v>8.9217944249999999</v>
+        <v>3.5281503718299998</v>
       </c>
       <c r="G59">
-        <v>4.3527838069999998</v>
+        <v>10.3351405313</v>
       </c>
       <c r="H59">
-        <v>10.65079991</v>
+        <v>8.4962942593099999</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.559790605</v>
+        <v>-0.315510018309</v>
       </c>
       <c r="B60">
-        <v>1.8469290739999999</v>
+        <v>-0.64581551148799998</v>
       </c>
       <c r="C60">
-        <v>1.789436185</v>
+        <v>4.0641636999599999</v>
       </c>
       <c r="D60">
-        <v>1.055194886</v>
+        <v>5.4191616104699997E-2</v>
       </c>
       <c r="E60">
-        <v>1.415121536</v>
+        <v>4.9394155040300003</v>
       </c>
       <c r="F60">
-        <v>6.3455367740000002</v>
+        <v>5.6060123524199996</v>
       </c>
       <c r="G60">
-        <v>5.7600284979999996</v>
+        <v>7.6224490284400002</v>
       </c>
       <c r="H60">
-        <v>9.9468693269999999</v>
+        <v>5.2269633443399997</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3.6877650009999998</v>
+        <v>-0.37894032149399998</v>
       </c>
       <c r="B61">
-        <v>-0.24420741500000001</v>
+        <v>4.2088822272300002</v>
       </c>
       <c r="C61">
-        <v>4.4324857570000002</v>
+        <v>-1.26505977946</v>
       </c>
       <c r="D61">
-        <v>3.4924656430000001</v>
+        <v>5.7022539115399997</v>
       </c>
       <c r="E61">
-        <v>2.0989045399999999</v>
+        <v>3.5319618812</v>
       </c>
       <c r="F61">
-        <v>3.9835938249999998</v>
+        <v>6.0669078600599997</v>
       </c>
       <c r="G61">
-        <v>2.2962765709999999</v>
+        <v>3.3498998236099999</v>
       </c>
       <c r="H61">
-        <v>4.2619733909999997</v>
+        <v>6.9573629059400002</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-1.0216055690000001</v>
+        <v>0.162111241268</v>
       </c>
       <c r="B62">
-        <v>-2.7661370700000001</v>
+        <v>0.90682262619300003</v>
       </c>
       <c r="C62">
-        <v>5.0707632130000002</v>
+        <v>-2.4214395461399998</v>
       </c>
       <c r="D62">
-        <v>3.6984832839999999</v>
+        <v>5.0518268815500003</v>
       </c>
       <c r="E62">
-        <v>7.1435657580000003</v>
+        <v>4.57756231818</v>
       </c>
       <c r="F62">
-        <v>3.1259843319999998</v>
+        <v>6.5738524168100003</v>
       </c>
       <c r="G62">
-        <v>2.2206459679999999</v>
+        <v>5.6591044537900004</v>
       </c>
       <c r="H62">
-        <v>8.0367731679999999</v>
+        <v>6.6849137996800003</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>-2.63214602</v>
+        <v>1.2782774672099999</v>
       </c>
       <c r="B63">
-        <v>2.7502300489999998</v>
+        <v>3.7198608879499999</v>
       </c>
       <c r="C63">
-        <v>2.9196743139999999</v>
+        <v>2.1202440970200001</v>
       </c>
       <c r="D63">
-        <v>5.5359409570000002</v>
+        <v>-0.28541769435300002</v>
       </c>
       <c r="E63">
-        <v>2.3471410000000002E-2</v>
+        <v>8.3177702618900007</v>
       </c>
       <c r="F63">
-        <v>0.32345660500000001</v>
+        <v>2.7770835210899998</v>
       </c>
       <c r="G63">
-        <v>3.7738286570000001</v>
+        <v>1.5510183535299999</v>
       </c>
       <c r="H63">
-        <v>7.9309950479999998</v>
+        <v>2.8362191126499998</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.23717374699999999</v>
+        <v>-1.88504476858</v>
       </c>
       <c r="B64">
-        <v>-1.621933053</v>
+        <v>2.5830877828899999</v>
       </c>
       <c r="C64">
-        <v>0.95619658600000002</v>
+        <v>2.5313785685100001</v>
       </c>
       <c r="D64">
-        <v>7.9099595870000003</v>
+        <v>3.3498872956499999</v>
       </c>
       <c r="E64">
-        <v>2.4925126620000002</v>
+        <v>6.3307175689299999</v>
       </c>
       <c r="F64">
-        <v>6.4486133920000004</v>
+        <v>7.3128514676099998</v>
       </c>
       <c r="G64">
-        <v>7.4761088080000002</v>
+        <v>7.4343757306100002</v>
       </c>
       <c r="H64">
-        <v>7.8874898660000001</v>
+        <v>7.26849169695</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1.7546968700000001</v>
+        <v>-4.8010705852799998E-2</v>
       </c>
       <c r="B65">
-        <v>2.3910903700000001</v>
+        <v>0.80781274150899995</v>
       </c>
       <c r="C65">
-        <v>5.0151212569999997</v>
+        <v>2.6395033847599998</v>
       </c>
       <c r="D65">
-        <v>4.9812475510000001</v>
+        <v>4.1211269757200002</v>
       </c>
       <c r="E65">
-        <v>4.3356087590000003</v>
+        <v>6.0157194462100003</v>
       </c>
       <c r="F65">
-        <v>4.4154401139999999</v>
+        <v>5.4173237588500003</v>
       </c>
       <c r="G65">
-        <v>6.9545249079999998</v>
+        <v>4.1217330054100003</v>
       </c>
       <c r="H65">
-        <v>4.2019771889999999</v>
+        <v>5.5063711663200001</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-2.4582552679999998</v>
+        <v>-1.21665020968</v>
       </c>
       <c r="B66">
-        <v>0.66640276799999998</v>
+        <v>2.88523435339</v>
       </c>
       <c r="C66">
-        <v>5.4311759830000002</v>
+        <v>5.2289983094799997</v>
       </c>
       <c r="D66">
-        <v>4.790929856</v>
+        <v>3.1472404101300002</v>
       </c>
       <c r="E66">
-        <v>9.3382370810000008</v>
+        <v>4.7442732505</v>
       </c>
       <c r="F66">
-        <v>7.3982985010000002</v>
+        <v>4.5004537529200004</v>
       </c>
       <c r="G66">
-        <v>6.7783632709999999</v>
+        <v>5.5224395738899998</v>
       </c>
       <c r="H66">
-        <v>8.7149119450000008</v>
+        <v>8.5862320317100007</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3.5310684569999999</v>
+        <v>0.14019111069000001</v>
       </c>
       <c r="B67">
-        <v>3.9783712449999999</v>
+        <v>2.0756653634900002</v>
       </c>
       <c r="C67">
-        <v>1.6294415999999999E-2</v>
+        <v>4.8336630607000002</v>
       </c>
       <c r="D67">
-        <v>1.6410786479999999</v>
+        <v>-1.84672119038</v>
       </c>
       <c r="E67">
-        <v>6.0949853740000002</v>
+        <v>5.4814305780700003</v>
       </c>
       <c r="F67">
-        <v>5.9894549169999998</v>
+        <v>8.4944533395900006</v>
       </c>
       <c r="G67">
-        <v>4.0428880390000002</v>
+        <v>7.0757501541699996</v>
       </c>
       <c r="H67">
-        <v>8.8844479879999998</v>
+        <v>6.4238914229399997</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-0.489598537</v>
+        <v>-1.82611620889</v>
       </c>
       <c r="B68">
-        <v>0.83690174500000003</v>
+        <v>3.9489377663199998</v>
       </c>
       <c r="C68">
-        <v>2.6315267530000002</v>
+        <v>2.8081652777600001</v>
       </c>
       <c r="D68">
-        <v>4.2521264570000001</v>
+        <v>1.4671807074400001</v>
       </c>
       <c r="E68">
-        <v>5.7926868230000004</v>
+        <v>5.5050642015599998</v>
       </c>
       <c r="F68">
-        <v>1.7519911450000001</v>
+        <v>1.9439679627299999</v>
       </c>
       <c r="G68">
-        <v>2.565870136</v>
+        <v>6.1659173246799996</v>
       </c>
       <c r="H68">
-        <v>7.6433956680000001</v>
+        <v>14.8937566869</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-2.4261939319999999</v>
+        <v>1.9375312309499999</v>
       </c>
       <c r="B69">
-        <v>-0.153118636</v>
+        <v>1.37750317839</v>
       </c>
       <c r="C69">
-        <v>1.95744242</v>
+        <v>6.6704281503800003</v>
       </c>
       <c r="D69">
-        <v>2.1849813089999999</v>
+        <v>0.95055779643399996</v>
       </c>
       <c r="E69">
-        <v>3.1546286939999999</v>
+        <v>2.5276560794199998</v>
       </c>
       <c r="F69">
-        <v>6.3575249229999997</v>
+        <v>-3.63387489595</v>
       </c>
       <c r="G69">
-        <v>4.8767708289999998</v>
+        <v>8.0074873174400008</v>
       </c>
       <c r="H69">
-        <v>4.8645020060000004</v>
+        <v>3.7847871978000001</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-4.197496202</v>
+        <v>-2.3515886054899999</v>
       </c>
       <c r="B70">
-        <v>-1.355897396</v>
+        <v>1.5696868018300001</v>
       </c>
       <c r="C70">
-        <v>3.9071970880000002</v>
+        <v>6.5469719229000001</v>
       </c>
       <c r="D70">
-        <v>0.838995037</v>
+        <v>4.3457773580600003</v>
       </c>
       <c r="E70">
-        <v>6.6278632919999998</v>
+        <v>4.6358804575599999</v>
       </c>
       <c r="F70">
-        <v>6.7209361579999998</v>
+        <v>2.4854651497</v>
       </c>
       <c r="G70">
-        <v>1.5848240389999999</v>
+        <v>2.0102572831400001</v>
       </c>
       <c r="H70">
-        <v>0.92270892599999998</v>
+        <v>10.988738301</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-0.15152676800000001</v>
+        <v>-2.6592967116600001</v>
       </c>
       <c r="B71">
-        <v>2.27329187</v>
+        <v>2.5995269240600001</v>
       </c>
       <c r="C71">
-        <v>6.0151732469999999</v>
+        <v>5.6081455458200002</v>
       </c>
       <c r="D71">
-        <v>4.0007024680000001</v>
+        <v>1.3535563611999999</v>
       </c>
       <c r="E71">
-        <v>3.728911444</v>
+        <v>4.7870186917000002</v>
       </c>
       <c r="F71">
-        <v>3.9639000680000001</v>
+        <v>9.0826088261700004</v>
       </c>
       <c r="G71">
-        <v>10.553853849999999</v>
+        <v>7.1586208952800003</v>
       </c>
       <c r="H71">
-        <v>9.3309599999999993</v>
+        <v>9.6177864651</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.99941470700000001</v>
+        <v>-4.7958637059499996</v>
       </c>
       <c r="B72">
-        <v>-0.89575101099999999</v>
+        <v>1.8180319249100001</v>
       </c>
       <c r="C72">
-        <v>0.35905722200000001</v>
+        <v>4.73751203573</v>
       </c>
       <c r="D72">
-        <v>0.97147592100000002</v>
+        <v>1.10256223033</v>
       </c>
       <c r="E72">
-        <v>5.7677626030000004</v>
+        <v>3.7229248655</v>
       </c>
       <c r="F72">
-        <v>2.8253401949999999</v>
+        <v>4.4623310806200003</v>
       </c>
       <c r="G72">
-        <v>3.5438734159999998</v>
+        <v>5.5877252895999998</v>
       </c>
       <c r="H72">
-        <v>7.7734383649999996</v>
+        <v>10.4198205007</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-2.7486574309999998</v>
+        <v>-0.35487189724599999</v>
       </c>
       <c r="B73">
-        <v>-0.62865073900000001</v>
+        <v>0.33322581838999998</v>
       </c>
       <c r="C73">
-        <v>1.1268866559999999</v>
+        <v>1.64920695593</v>
       </c>
       <c r="D73">
-        <v>2.7141715990000002</v>
+        <v>4.0374639803400001</v>
       </c>
       <c r="E73">
-        <v>6.4791373190000003</v>
+        <v>1.46399097541</v>
       </c>
       <c r="F73">
-        <v>8.5443121719999997</v>
+        <v>6.7496110098999997</v>
       </c>
       <c r="G73">
-        <v>5.04495717</v>
+        <v>5.35069459271</v>
       </c>
       <c r="H73">
-        <v>5.2907576900000004</v>
+        <v>5.1772941579299996</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-3.267091856</v>
+        <v>0.151649778894</v>
       </c>
       <c r="B74">
-        <v>1.3215655120000001</v>
+        <v>-0.22522746006</v>
       </c>
       <c r="C74">
-        <v>0.613563199</v>
+        <v>7.0652035590000004</v>
       </c>
       <c r="D74">
-        <v>4.0276256500000001</v>
+        <v>6.9850490376599996</v>
       </c>
       <c r="E74">
-        <v>1.868546217</v>
+        <v>0.92112970157100005</v>
       </c>
       <c r="F74">
-        <v>4.4799320839999996</v>
+        <v>6.8512045021699999</v>
       </c>
       <c r="G74">
-        <v>1.1236216939999999</v>
+        <v>1.1545468677299999</v>
       </c>
       <c r="H74">
-        <v>6.123774504</v>
+        <v>3.1846242930200002</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1.4135540680000001</v>
+        <v>6.6299582490000004</v>
       </c>
       <c r="B75">
-        <v>6.5489023990000002</v>
+        <v>-1.5901819638000001</v>
       </c>
       <c r="C75">
-        <v>2.9034498700000002</v>
+        <v>2.73385452564</v>
       </c>
       <c r="D75">
-        <v>1.7907240980000001</v>
+        <v>0.79824547589100003</v>
       </c>
       <c r="E75">
-        <v>4.9298458319999998</v>
+        <v>5.0409129044199998</v>
       </c>
       <c r="F75">
-        <v>6.2069598109999999</v>
+        <v>7.4585595940899996</v>
       </c>
       <c r="G75">
-        <v>10.99808983</v>
+        <v>6.4390633688000003</v>
       </c>
       <c r="H75">
-        <v>4.6368067440000003</v>
+        <v>5.8408982689300002</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-3.9050960109999999</v>
+        <v>-1.1114754905599999</v>
       </c>
       <c r="B76">
-        <v>-0.15312727400000001</v>
+        <v>0.84584983784500001</v>
       </c>
       <c r="C76">
-        <v>-3.3698302770000002</v>
+        <v>1.0247841895900001</v>
       </c>
       <c r="D76">
-        <v>0.83145087799999995</v>
+        <v>5.2379263490300003</v>
       </c>
       <c r="E76">
-        <v>1.9343453420000001</v>
+        <v>3.0592434744600001</v>
       </c>
       <c r="F76">
-        <v>0.96644609199999998</v>
+        <v>1.91018575868</v>
       </c>
       <c r="G76">
-        <v>4.6894978260000002</v>
+        <v>3.30789580155</v>
       </c>
       <c r="H76">
-        <v>11.29510962</v>
+        <v>5.2213576605399998</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.41888418700000002</v>
+        <v>5.29243405251</v>
       </c>
       <c r="B77">
-        <v>0.96089769199999997</v>
+        <v>-4.7348334776300002E-2</v>
       </c>
       <c r="C77">
-        <v>3.1691046940000001</v>
+        <v>0.54488088451500005</v>
       </c>
       <c r="D77">
-        <v>-0.42476565500000002</v>
+        <v>2.74869915779</v>
       </c>
       <c r="E77">
-        <v>4.2416117570000003</v>
+        <v>5.1522186454799996</v>
       </c>
       <c r="F77">
-        <v>6.6856588190000004</v>
+        <v>4.9983299293499996</v>
       </c>
       <c r="G77">
-        <v>7.7440500380000001</v>
+        <v>4.8212387896499997</v>
       </c>
       <c r="H77">
-        <v>0.96064729199999999</v>
+        <v>6.2033711857</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-2.7018095049999999</v>
+        <v>1.51603281855</v>
       </c>
       <c r="B78">
-        <v>1.2011551549999999</v>
+        <v>0.33442938626199997</v>
       </c>
       <c r="C78">
-        <v>3.1242806430000001</v>
+        <v>3.7769034432000002</v>
       </c>
       <c r="D78">
-        <v>-1.785791922</v>
+        <v>-1.40988804837</v>
       </c>
       <c r="E78">
-        <v>3.6998344990000001</v>
+        <v>1.0066241391999999</v>
       </c>
       <c r="F78">
-        <v>5.558803106</v>
+        <v>4.3543251465599999</v>
       </c>
       <c r="G78">
-        <v>7.5757339530000003</v>
+        <v>10.531300868900001</v>
       </c>
       <c r="H78">
-        <v>6.6325627379999998</v>
+        <v>5.5736439020299997</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4.3792752610000001</v>
+        <v>-2.5660110357499999</v>
       </c>
       <c r="B79">
-        <v>-3.157869142</v>
+        <v>2.6174025523800002</v>
       </c>
       <c r="C79">
-        <v>0.65918357900000002</v>
+        <v>1.8598621264499999</v>
       </c>
       <c r="D79">
-        <v>1.8345718339999999</v>
+        <v>2.7308642434500001</v>
       </c>
       <c r="E79">
-        <v>4.3982620140000002</v>
+        <v>7.2815051966100004</v>
       </c>
       <c r="F79">
-        <v>5.3472928719999997</v>
+        <v>2.42375993986</v>
       </c>
       <c r="G79">
-        <v>8.9566203560000002</v>
+        <v>4.6272798505999999</v>
       </c>
       <c r="H79">
-        <v>2.9217802750000001</v>
+        <v>7.3802954297700003</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-2.728016786</v>
+        <v>1.58774888688</v>
       </c>
       <c r="B80">
-        <v>-1.5878774959999999</v>
+        <v>0.43535082376000001</v>
       </c>
       <c r="C80">
-        <v>2.2531079150000002</v>
+        <v>3.5591799591000002</v>
       </c>
       <c r="D80">
-        <v>-1.980067139</v>
+        <v>5.6786074050500002</v>
       </c>
       <c r="E80">
-        <v>5.9861320229999997</v>
+        <v>2.0673749829000001</v>
       </c>
       <c r="F80">
-        <v>-1.422686366</v>
+        <v>2.8119802337399999</v>
       </c>
       <c r="G80">
-        <v>9.6673793929999992</v>
+        <v>6.4397928582799997</v>
       </c>
       <c r="H80">
-        <v>4.2018664179999998</v>
+        <v>9.4575609709199995</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-1.446694232</v>
+        <v>-1.06314408713</v>
       </c>
       <c r="B81">
-        <v>4.0194053849999998</v>
+        <v>2.83014247367</v>
       </c>
       <c r="C81">
-        <v>2.5303869969999999</v>
+        <v>3.54782748492</v>
       </c>
       <c r="D81">
-        <v>3.394821517</v>
+        <v>5.9344043707100003</v>
       </c>
       <c r="E81">
-        <v>8.4972384240000007</v>
+        <v>1.2534485929400001</v>
       </c>
       <c r="F81">
-        <v>3.3399498529999998</v>
+        <v>5.1162510691599996</v>
       </c>
       <c r="G81">
-        <v>6.1501772729999997</v>
+        <v>8.65734711076</v>
       </c>
       <c r="H81">
-        <v>10.086096169999999</v>
+        <v>7.2683901801599999</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2.2800857520000002</v>
+        <v>0.75672311163499995</v>
       </c>
       <c r="B82">
-        <v>-0.82539813200000001</v>
+        <v>2.2348986430500002</v>
       </c>
       <c r="C82">
-        <v>3.3627071910000002</v>
+        <v>-0.15840976924</v>
       </c>
       <c r="D82">
-        <v>6.5960999210000004</v>
+        <v>4.5055924010600004</v>
       </c>
       <c r="E82">
-        <v>1.7828333869999999</v>
+        <v>1.5952397650900001</v>
       </c>
       <c r="F82">
-        <v>8.288141005</v>
+        <v>7.2831953628299999</v>
       </c>
       <c r="G82">
-        <v>11.24028154</v>
+        <v>3.1733475090100001</v>
       </c>
       <c r="H82">
-        <v>9.8082754199999993</v>
+        <v>8.7844865940200005</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1.1985882649999999</v>
+        <v>3.19527561121</v>
       </c>
       <c r="B83">
-        <v>-2.895175456</v>
+        <v>1.7372886192000001</v>
       </c>
       <c r="C83">
-        <v>3.2161674910000002</v>
+        <v>2.2354639772299998</v>
       </c>
       <c r="D83">
-        <v>1.5762726419999999</v>
+        <v>3.2278484978400002</v>
       </c>
       <c r="E83">
-        <v>3.1480857449999999</v>
+        <v>7.2914156872799998</v>
       </c>
       <c r="F83">
-        <v>2.0445370760000001</v>
+        <v>8.1457843106900008</v>
       </c>
       <c r="G83">
-        <v>4.9008362229999998</v>
+        <v>4.1253233694500002</v>
       </c>
       <c r="H83">
-        <v>2.1939388979999999</v>
+        <v>8.2146264870099994</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>3.4328585000000002E-2</v>
+        <v>-3.6218552018999999</v>
       </c>
       <c r="B84">
-        <v>5.6857504719999996</v>
+        <v>-1.3788968536699999</v>
       </c>
       <c r="C84">
-        <v>3.4522719259999999</v>
+        <v>0.95681692427499998</v>
       </c>
       <c r="D84">
-        <v>2.1109181860000001</v>
+        <v>2.4096477091700002</v>
       </c>
       <c r="E84">
-        <v>5.8779193840000001</v>
+        <v>5.3978873597900003</v>
       </c>
       <c r="F84">
-        <v>8.6142802710000002</v>
+        <v>2.7108195586599999</v>
       </c>
       <c r="G84">
-        <v>5.5104056400000001</v>
+        <v>7.6515720259500002</v>
       </c>
       <c r="H84">
-        <v>5.6047271270000003</v>
+        <v>3.6937515079300001</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>3.4387498129999998</v>
+        <v>-5.32521614283E-4</v>
       </c>
       <c r="B85">
-        <v>-2.6729433990000002</v>
+        <v>-0.14666057679</v>
       </c>
       <c r="C85">
-        <v>1.3321385459999999</v>
+        <v>3.0775425205600002</v>
       </c>
       <c r="D85">
-        <v>5.1100574830000003</v>
+        <v>1.7624040937300001</v>
       </c>
       <c r="E85">
-        <v>6.7142723479999997</v>
+        <v>1.9846955684300001</v>
       </c>
       <c r="F85">
-        <v>1.0529371139999999</v>
+        <v>7.2256597238099998</v>
       </c>
       <c r="G85">
-        <v>7.8314227289999998</v>
+        <v>10.992334034500001</v>
       </c>
       <c r="H85">
-        <v>8.9146393100000001</v>
+        <v>5.9183503785999996</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>-1.4567126239999999</v>
+        <v>-1.94250679591</v>
       </c>
       <c r="B86">
-        <v>1.5363993300000001</v>
+        <v>2.22185972642</v>
       </c>
       <c r="C86">
-        <v>-0.80004995499999998</v>
+        <v>5.8094613156900001</v>
       </c>
       <c r="D86">
-        <v>4.4388601479999998</v>
+        <v>5.7790100954800003</v>
       </c>
       <c r="E86">
-        <v>6.0735879969999997</v>
+        <v>7.2289313898299996</v>
       </c>
       <c r="F86">
-        <v>3.34191379</v>
+        <v>8.7384826441399994</v>
       </c>
       <c r="G86">
-        <v>8.4958616510000002</v>
+        <v>12.1903624949</v>
       </c>
       <c r="H86">
-        <v>8.5158280229999992</v>
+        <v>6.8188009204500002</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-0.79888320400000001</v>
+        <v>2.8596565801199998</v>
       </c>
       <c r="B87">
-        <v>-4.0077059439999996</v>
+        <v>2.81587317893</v>
       </c>
       <c r="C87">
-        <v>2.1805630439999999</v>
+        <v>3.8067855977199998</v>
       </c>
       <c r="D87">
-        <v>6.2081432339999996</v>
+        <v>0.54864383585499998</v>
       </c>
       <c r="E87">
-        <v>6.5177662930000002</v>
+        <v>5.9271269882800004</v>
       </c>
       <c r="F87">
-        <v>3.452930549</v>
+        <v>0.72863657446499996</v>
       </c>
       <c r="G87">
-        <v>8.0688147000000008</v>
+        <v>5.4464281889299997</v>
       </c>
       <c r="H87">
-        <v>10.87663176</v>
+        <v>6.1698326054999999</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2.3634924480000001</v>
+        <v>2.3658288753100001</v>
       </c>
       <c r="B88">
-        <v>1.5086377479999999</v>
+        <v>1.0030875485899999</v>
       </c>
       <c r="C88">
-        <v>-3.8296239590000001</v>
+        <v>3.75623848577</v>
       </c>
       <c r="D88">
-        <v>5.5035857869999996</v>
+        <v>2.3808260460800001</v>
       </c>
       <c r="E88">
-        <v>5.8797693239999997</v>
+        <v>2.72847535995</v>
       </c>
       <c r="F88">
-        <v>8.4980847009999998</v>
+        <v>3.57455808454</v>
       </c>
       <c r="G88">
-        <v>7.1643776399999997</v>
+        <v>11.4764220554</v>
       </c>
       <c r="H88">
-        <v>6.8792200509999999</v>
+        <v>2.7307728402699998</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1.0576465859999999</v>
+        <v>0.36219741859600002</v>
       </c>
       <c r="B89">
-        <v>0.77938469899999996</v>
+        <v>0.118681138257</v>
       </c>
       <c r="C89">
-        <v>1.16431201</v>
+        <v>-0.72201640511099996</v>
       </c>
       <c r="D89">
-        <v>4.9851266799999996</v>
+        <v>1.16143186057</v>
       </c>
       <c r="E89">
-        <v>2.7578906050000001</v>
+        <v>5.3416156139200002</v>
       </c>
       <c r="F89">
-        <v>-1.5698152030000001</v>
+        <v>2.5913975153500002</v>
       </c>
       <c r="G89">
-        <v>5.6794878310000003</v>
+        <v>3.5011591383799998</v>
       </c>
       <c r="H89">
-        <v>6.2276993159999998</v>
+        <v>6.5729612636899999</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-7.1307616759999997</v>
+        <v>0.79962767697199999</v>
       </c>
       <c r="B90">
-        <v>2.855145254</v>
+        <v>2.9120852820700001</v>
       </c>
       <c r="C90">
-        <v>2.8935933399999998</v>
+        <v>0.715224984487</v>
       </c>
       <c r="D90">
-        <v>5.1683927430000001</v>
+        <v>2.6830976605500001</v>
       </c>
       <c r="E90">
-        <v>2.1245484800000001</v>
+        <v>0.151971478878</v>
       </c>
       <c r="F90">
-        <v>4.6906081080000002</v>
+        <v>7.5228862923399999</v>
       </c>
       <c r="G90">
-        <v>8.540804821</v>
+        <v>6.7579239838099996</v>
       </c>
       <c r="H90">
-        <v>14.03263799</v>
+        <v>12.284554136100001</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>4.0294871910000003</v>
+        <v>-1.28248777319</v>
       </c>
       <c r="B91">
-        <v>-2.653308451</v>
+        <v>-1.8886303654000001</v>
       </c>
       <c r="C91">
-        <v>4.7777119900000002</v>
+        <v>2.2399036041499998</v>
       </c>
       <c r="D91">
-        <v>1.131473612</v>
+        <v>0.35525593328799998</v>
       </c>
       <c r="E91">
-        <v>2.124844505</v>
+        <v>3.8920448300400001</v>
       </c>
       <c r="F91">
-        <v>8.9030588309999992</v>
+        <v>10.5441619788</v>
       </c>
       <c r="G91">
-        <v>5.7194709079999999</v>
+        <v>6.8551505932700003</v>
       </c>
       <c r="H91">
-        <v>6.967609156</v>
+        <v>4.3302940339399996</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>-1.079937417</v>
+        <v>-1.1849660762600001</v>
       </c>
       <c r="B92">
-        <v>0.17819369900000001</v>
+        <v>2.5241763007300002</v>
       </c>
       <c r="C92">
-        <v>2.1332548189999998</v>
+        <v>5.9003209743099996</v>
       </c>
       <c r="D92">
-        <v>4.2845859869999998</v>
+        <v>5.9340049351599999</v>
       </c>
       <c r="E92">
-        <v>2.8444657860000002</v>
+        <v>4.2022269548500004</v>
       </c>
       <c r="F92">
-        <v>5.3315609349999997</v>
+        <v>4.9735024325400001</v>
       </c>
       <c r="G92">
-        <v>6.4969959030000002</v>
+        <v>7.1946684044599998</v>
       </c>
       <c r="H92">
-        <v>6.1660157800000004</v>
+        <v>1.73512436956</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1.731310527</v>
+        <v>-0.25932624620900002</v>
       </c>
       <c r="B93">
-        <v>2.4669855630000002</v>
+        <v>-2.1991871083899999</v>
       </c>
       <c r="C93">
-        <v>2.7344974070000001</v>
+        <v>3.0235267363</v>
       </c>
       <c r="D93">
-        <v>1.9454136989999999</v>
+        <v>1.8898112810700001</v>
       </c>
       <c r="E93">
-        <v>3.6302095159999999</v>
+        <v>-0.64183891993499997</v>
       </c>
       <c r="F93">
-        <v>7.1831532410000003</v>
+        <v>7.9772391234100004</v>
       </c>
       <c r="G93">
-        <v>2.2192037550000001</v>
+        <v>6.5860333208600004</v>
       </c>
       <c r="H93">
-        <v>11.17450126</v>
+        <v>2.5317698167399998</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>-2.6701792580000001</v>
+        <v>2.5096605601299999</v>
       </c>
       <c r="B94">
-        <v>-0.137611663</v>
+        <v>3.5073427291099999</v>
       </c>
       <c r="C94">
-        <v>-0.62523575799999997</v>
+        <v>0.82558567794299997</v>
       </c>
       <c r="D94">
-        <v>5.434280266</v>
+        <v>4.84265706499</v>
       </c>
       <c r="E94">
-        <v>7.1799313749999998</v>
+        <v>1.64067396057</v>
       </c>
       <c r="F94">
-        <v>4.1186268070000001</v>
+        <v>8.5330840487700002</v>
       </c>
       <c r="G94">
-        <v>7.8113410590000001</v>
+        <v>2.8141591313199998</v>
       </c>
       <c r="H94">
-        <v>2.9696533280000001</v>
+        <v>10.427767664699999</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>3.6347392809999999</v>
+        <v>6.7412928780099995E-2</v>
       </c>
       <c r="B95">
-        <v>3.4817440080000002</v>
+        <v>0.651268441438</v>
       </c>
       <c r="C95">
-        <v>2.0936737320000001</v>
+        <v>3.0146014032699999</v>
       </c>
       <c r="D95">
-        <v>2.7269270560000001</v>
+        <v>2.6736884995099999</v>
       </c>
       <c r="E95">
-        <v>0.83100451900000005</v>
+        <v>4.0604809665800001</v>
       </c>
       <c r="F95">
-        <v>2.8602342350000001</v>
+        <v>2.3075806997599999</v>
       </c>
       <c r="G95">
-        <v>9.0131293449999994</v>
+        <v>7.5652804086599996</v>
       </c>
       <c r="H95">
-        <v>6.7204564189999996</v>
+        <v>7.3515188926899997</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-4.8913440220000002</v>
+        <v>0.27871173862699999</v>
       </c>
       <c r="B96">
-        <v>1.1021055719999999</v>
+        <v>1.68533068717</v>
       </c>
       <c r="C96">
-        <v>5.6577495669999998</v>
+        <v>0.43437365439699999</v>
       </c>
       <c r="D96">
-        <v>2.5677794519999999</v>
+        <v>-0.29273175368400001</v>
       </c>
       <c r="E96">
-        <v>2.9097002270000001</v>
+        <v>4.9308143193199996</v>
       </c>
       <c r="F96">
-        <v>2.6596689570000001</v>
+        <v>8.8753059113599999</v>
       </c>
       <c r="G96">
-        <v>5.2614016000000001</v>
+        <v>7.1846560118199996</v>
       </c>
       <c r="H96">
-        <v>3.9682200070000002</v>
+        <v>11.336047154399999</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-1.0326357209999999</v>
+        <v>-0.18476450478600001</v>
       </c>
       <c r="B97">
-        <v>1.2976282910000001</v>
+        <v>-2.38087781656</v>
       </c>
       <c r="C97">
-        <v>1.1875956059999999</v>
+        <v>1.4293130464499999</v>
       </c>
       <c r="D97">
-        <v>1.596512457</v>
+        <v>1.0699835363700001</v>
       </c>
       <c r="E97">
-        <v>-1.713098252</v>
+        <v>6.1257203101400002</v>
       </c>
       <c r="F97">
-        <v>5.8815407090000003</v>
+        <v>8.7520402300699995</v>
       </c>
       <c r="G97">
-        <v>5.1598613569999996</v>
+        <v>8.3977557280900008</v>
       </c>
       <c r="H97">
-        <v>4.7952558659999998</v>
+        <v>8.5955654798900003</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1.2800818700000001</v>
+        <v>-1.9016691804600001</v>
       </c>
       <c r="B98">
-        <v>4.1300021070000001</v>
+        <v>0.52561094664100005</v>
       </c>
       <c r="C98">
-        <v>4.5062013590000003</v>
+        <v>-0.95043627578300005</v>
       </c>
       <c r="D98">
-        <v>3.020934156</v>
+        <v>5.7439384784399996</v>
       </c>
       <c r="E98">
-        <v>4.6092734240000004</v>
+        <v>3.3585854084000002</v>
       </c>
       <c r="F98">
-        <v>4.2451117810000003</v>
+        <v>3.9125769326099999</v>
       </c>
       <c r="G98">
-        <v>9.2103024349999991</v>
+        <v>9.8532767526100002</v>
       </c>
       <c r="H98">
-        <v>1.4211783060000001</v>
+        <v>11.2831705298</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-1.4032134540000001</v>
+        <v>0.474439384513</v>
       </c>
       <c r="B99">
-        <v>6.8726391160000002</v>
+        <v>5.4074057771900002</v>
       </c>
       <c r="C99">
-        <v>2.7714395449999998</v>
+        <v>1.2255342460600001</v>
       </c>
       <c r="D99">
-        <v>-2.541722611</v>
+        <v>5.88111990214</v>
       </c>
       <c r="E99">
-        <v>1.756925734</v>
+        <v>5.6377634743699998</v>
       </c>
       <c r="F99">
-        <v>1.7720035750000001</v>
+        <v>3.7675373755099999</v>
       </c>
       <c r="G99">
-        <v>5.983401132</v>
+        <v>7.0698844002800003</v>
       </c>
       <c r="H99">
-        <v>7.4565525370000003</v>
+        <v>7.0089003055400001</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>-0.31896331</v>
+        <v>-1.5112887671299999</v>
       </c>
       <c r="B100">
-        <v>-1.767603617</v>
+        <v>-0.19698522419100001</v>
       </c>
       <c r="C100">
-        <v>-1.3422960370000001</v>
+        <v>3.18681448276</v>
       </c>
       <c r="D100">
-        <v>4.351301608</v>
+        <v>4.4800509554100003</v>
       </c>
       <c r="E100">
-        <v>6.2463250749999997</v>
+        <v>2.7957252135199999</v>
       </c>
       <c r="F100">
-        <v>7.4522991440000004</v>
+        <v>3.6778019687099999</v>
       </c>
       <c r="G100">
-        <v>5.7347996329999997</v>
+        <v>4.7673316902599998</v>
       </c>
       <c r="H100">
-        <v>9.1728656579999992</v>
+        <v>7.8084364120799998</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>2.3842927729999999</v>
+        <f>STDEV(A1:A100)</f>
+        <v>2.1306801683490648</v>
       </c>
       <c r="B102">
-        <v>2.2460121919999998</v>
+        <f t="shared" ref="B102:H102" si="0">STDEV(B1:B100)</f>
+        <v>2.2273184198164762</v>
       </c>
       <c r="C102">
-        <v>2.3622032009999998</v>
+        <f t="shared" si="0"/>
+        <v>2.3239566712839035</v>
       </c>
       <c r="D102">
-        <v>2.5082949160000001</v>
+        <f t="shared" si="0"/>
+        <v>2.4205949227514263</v>
       </c>
       <c r="E102">
-        <v>2.4214848889999998</v>
+        <f t="shared" si="0"/>
+        <v>2.5172331742175023</v>
       </c>
       <c r="F102">
-        <v>2.689638983</v>
+        <f t="shared" si="0"/>
+        <v>2.6138714256862681</v>
       </c>
       <c r="G102">
-        <v>2.5455610819999999</v>
+        <f t="shared" si="0"/>
+        <v>2.7105096771509594</v>
       </c>
       <c r="H102">
-        <v>2.9653982989999998</v>
+        <f t="shared" si="0"/>
+        <v>2.8071479286199579</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <v>6</v>
+      </c>
+      <c r="H103">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Magnetometer/NoiseFloor_raw_withGraph.xlsx
+++ b/Magnetometer/NoiseFloor_raw_withGraph.xlsx
@@ -571,37 +571,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -636,6 +606,36 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>NoiseFloor_raw!$A$102:$H$102</c:f>
@@ -1737,7 +1737,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
